--- a/산출물/산출물.xlsx
+++ b/산출물/산출물.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\data03\Downloads\speech-main\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\speech\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 구조도" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="163">
   <si>
     <t>라이센스</t>
   </si>
@@ -612,10 +612,6 @@
     <t>USER_004</t>
   </si>
   <si>
-    <t>사용자 문제 학습</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>USER_005</t>
     </r>
@@ -761,6 +757,62 @@
   </si>
   <si>
     <t xml:space="preserve">      사용자 문제 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사용자 문제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 리스트</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사용자 문제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 학습</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 문제 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사용자 문제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 문제 생성</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1068,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1159,13 +1211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,54 +1251,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,58 +1353,19 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1673,10 +1722,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:P25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1689,18 +1738,26 @@
     <col min="9" max="9" width="8.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="26.25">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:16" ht="26.25">
+      <c r="B2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3" s="39" t="s">
         <v>33</v>
       </c>
@@ -1722,42 +1779,65 @@
       <c r="H3" s="39" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="90" customFormat="1">
-      <c r="B4" s="91"/>
-      <c r="C4" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+    </row>
+    <row r="4" spans="1:16" s="57" customFormat="1">
+      <c r="B4" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="46"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5"/>
-      <c r="B5" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
         <v>63</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="60"/>
-      <c r="C6" s="68"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="63"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="14" t="s">
         <v>64</v>
       </c>
@@ -1767,9 +1847,17 @@
         <v>63</v>
       </c>
       <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="60"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="63"/>
       <c r="C7" s="56" t="s">
         <v>123</v>
       </c>
@@ -1780,10 +1868,18 @@
         <v>63</v>
       </c>
       <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="68"/>
-      <c r="C8" s="43" t="s">
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="64"/>
+      <c r="C8" s="55" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="14"/>
@@ -1794,14 +1890,14 @@
       </c>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:16">
+      <c r="B9" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
@@ -1809,19 +1905,19 @@
       </c>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="26.25">
-      <c r="B10" s="63" t="s">
+    <row r="10" spans="1:16" ht="26.25">
+      <c r="B10" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:16">
       <c r="B11" s="39" t="s">
         <v>33</v>
       </c>
@@ -1845,125 +1941,223 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
-      <c r="B12" s="66" t="s">
+    <row r="12" spans="1:16" s="1" customFormat="1">
+      <c r="B12" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
-      <c r="B13" s="61"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="51" t="s">
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1">
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
-      <c r="B14" s="61"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="51" t="s">
-        <v>132</v>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1">
+      <c r="B14" s="67"/>
+      <c r="C14" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>158</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="61"/>
-      <c r="C15" s="57" t="s">
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1">
+      <c r="B15" s="67"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1">
+      <c r="B16" s="67"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="2:9" s="1" customFormat="1">
+      <c r="B17" s="67"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="2:9" s="1" customFormat="1">
+      <c r="B18" s="67"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="67"/>
+      <c r="C19" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="49" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" ht="26.25">
-      <c r="B16" s="63" t="s">
+      <c r="H19" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="2:9" ht="26.25">
+      <c r="B20" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="42" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E21" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H21" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="55" t="s">
+    <row r="22" spans="2:9" s="57" customFormat="1">
+      <c r="B22" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C22" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
+      <c r="D22" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="2:9" s="57" customFormat="1">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="2:9" s="57" customFormat="1">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="14"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B12:B19"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1977,7 +2171,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1988,65 +2182,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="72" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="84" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="73"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="14"/>
@@ -2060,10 +2254,10 @@
       <c r="H5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="76" t="s">
+      <c r="I5" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="67" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2071,10 +2265,10 @@
       <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="14"/>
@@ -2087,15 +2281,15 @@
       <c r="H6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="45" t="s">
         <v>104</v>
       </c>
       <c r="E7" s="14"/>
@@ -2108,15 +2302,15 @@
       <c r="H7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="45" t="s">
         <v>105</v>
       </c>
       <c r="E8" s="14"/>
@@ -2129,38 +2323,38 @@
       <c r="H8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>147</v>
+      <c r="D9" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="45" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="14"/>
@@ -2173,15 +2367,15 @@
       <c r="H10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="14">
         <v>7</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="45" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="14"/>
@@ -2194,35 +2388,35 @@
       <c r="H11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="14">
         <v>8</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="54" t="s">
         <v>124</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="14">
         <v>9</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="14"/>
@@ -2236,88 +2430,88 @@
       <c r="H13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="2:10" ht="26.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="77" t="s">
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="69" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="78"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="14">
         <v>1</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="48" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="82" t="s">
+      <c r="I17" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2325,230 +2519,230 @@
       <c r="B18" s="14">
         <v>2</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="48" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="82"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="2:10" s="1" customFormat="1">
       <c r="B19" s="14">
         <v>3</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="87" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="82"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" spans="2:10" s="1" customFormat="1">
       <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="82"/>
+      <c r="G20" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" spans="2:10" s="1" customFormat="1">
       <c r="B21" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="53" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="82"/>
+      <c r="F21" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="2:10" s="1" customFormat="1">
       <c r="B22" s="14">
         <v>5</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="53" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="82"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="23" spans="2:10" s="1" customFormat="1">
       <c r="B23" s="14">
         <v>6</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="53" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="51" t="s">
+      <c r="F23" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="83"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="14">
         <v>7</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="52" t="s">
+      <c r="F24" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="84"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="2:10" ht="26.25">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="77" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="77" t="s">
+      <c r="J26" s="69" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="78"/>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="14">
         <v>1</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="51" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="63" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2556,89 +2750,67 @@
       <c r="B29" s="14">
         <v>2</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="53" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="51" t="s">
         <v>90</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="14">
         <v>3</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="53" t="s">
+      <c r="C30" s="67"/>
+      <c r="D30" s="51" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="14">
         <v>4</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="53" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="51" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I17:I24"/>
-    <mergeCell ref="J17:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:B4"/>
@@ -2652,6 +2824,28 @@
     <mergeCell ref="J5:J13"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I17:I24"/>
+    <mergeCell ref="J17:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2664,8 +2858,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2731,7 +2925,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="14" t="str">
-        <f t="shared" ref="C3:D42" si="0">IF(G3=0,"Not Started",IF(G3&lt;1,"Progress",IF(G3=1,"Finished")))</f>
+        <f t="shared" ref="C3:C42" si="0">IF(G3=0,"Not Started",IF(G3&lt;1,"Progress",IF(G3=1,"Finished")))</f>
         <v>Finished</v>
       </c>
       <c r="D3" s="15">
@@ -3355,7 +3549,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="52" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3483,14 +3677,14 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="52" t="s">
         <v>114</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="14" t="str">
-        <f t="shared" ref="C33:C40" si="4">IF(G33=0,"Not Started",IF(G33&lt;1,"Progress",IF(G33=1,"Finished")))</f>
+        <f t="shared" ref="C33" si="4">IF(G33=0,"Not Started",IF(G33&lt;1,"Progress",IF(G33=1,"Finished")))</f>
         <v>Not Started</v>
       </c>
       <c r="D33" s="15">
@@ -3500,7 +3694,7 @@
         <v>44370</v>
       </c>
       <c r="F33" s="16">
-        <f t="shared" ref="F33:F40" si="5">NETWORKDAYS(D33,E33)</f>
+        <f t="shared" ref="F33" si="5">NETWORKDAYS(D33,E33)</f>
         <v>23</v>
       </c>
       <c r="G33" s="17">
@@ -3508,7 +3702,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -3533,8 +3727,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1">
-      <c r="A35" s="54" t="s">
-        <v>153</v>
+      <c r="A35" s="52" t="s">
+        <v>152</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>39</v>
@@ -3558,8 +3752,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1">
-      <c r="A36" s="54" t="s">
-        <v>154</v>
+      <c r="A36" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>39</v>
@@ -3583,8 +3777,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1">
-      <c r="A37" s="54" t="s">
-        <v>155</v>
+      <c r="A37" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>39</v>
@@ -3608,8 +3802,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1">
-      <c r="A38" s="54" t="s">
-        <v>156</v>
+      <c r="A38" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>39</v>
@@ -3633,8 +3827,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1">
-      <c r="A39" s="54" t="s">
-        <v>157</v>
+      <c r="A39" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>39</v>
@@ -3658,8 +3852,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1">
-      <c r="A40" s="54" t="s">
-        <v>158</v>
+      <c r="A40" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>39</v>
@@ -3684,7 +3878,7 @@
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1">
       <c r="A41" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>39</v>
@@ -3719,7 +3913,7 @@
         <f t="shared" si="0"/>
         <v>Not Started</v>
       </c>
-      <c r="D42" s="93">
+      <c r="D42" s="59">
         <v>44348</v>
       </c>
       <c r="E42" s="29">
@@ -3761,7 +3955,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="52" t="s">
         <v>109</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -3786,7 +3980,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -3811,7 +4005,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="52" t="s">
         <v>111</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -3836,7 +4030,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="52" t="s">
         <v>112</v>
       </c>
       <c r="B47" s="13" t="s">
